--- a/va_facility_data_2025-02-20/Victorville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Victorville%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Victorville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Victorville%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5980189f89ca4e7f8b42a3d723c998db"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R18931ea11fb94a9ebc6d46b2d8d50968"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0e1d4638d71f409dbd373ccb29b27310"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7f0dd77e11be4611b09557b6523c6e25"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re8a354b3ea98411383e2e26d8e6976a1"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R35b9700ab90a4fc790f1ab76dbda6bc2"/>
   </x:sheets>
 </x:workbook>
 </file>
